--- a/src/dist/dist3.xlsx
+++ b/src/dist/dist3.xlsx
@@ -1343,7 +1343,7 @@
     <row r="2" ht="14.25" customFormat="1" customHeight="1" s="7">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>填报日期： 2024年06月30日 14时</t>
+          <t>填报日期： 2024年06月30日 17时</t>
         </is>
       </c>
       <c r="B2" s="7" t="n"/>
@@ -1375,32 +1375,32 @@
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>今日14时</t>
+          <t>今日17时</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>今日12时</t>
+          <t>今日15时</t>
         </is>
       </c>
       <c r="F3" s="9" t="inlineStr">
         <is>
-          <t>今日10时</t>
+          <t>今日13时</t>
         </is>
       </c>
       <c r="G3" s="9" t="inlineStr">
         <is>
-          <t>今日08时</t>
+          <t>今日11时</t>
         </is>
       </c>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t>今日06时</t>
+          <t>今日09时</t>
         </is>
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>今日04时</t>
+          <t>今日07时</t>
         </is>
       </c>
       <c r="J3" s="25" t="inlineStr">
@@ -1473,22 +1473,22 @@
         </is>
       </c>
       <c r="D5" s="31" t="n">
-        <v>13.75</v>
+        <v>13.8</v>
       </c>
       <c r="E5" s="31" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="F5" s="32" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="G5" s="32" t="n">
         <v>13.66</v>
       </c>
-      <c r="F5" s="32" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="G5" s="32" t="n">
-        <v>13.55</v>
-      </c>
       <c r="H5" s="32" t="n">
-        <v>13.49</v>
+        <v>13.59</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>13.47</v>
+        <v>13.52</v>
       </c>
       <c r="J5" s="26" t="n">
         <v>44025</v>
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="D6" s="31" t="n">
-        <v>11.52</v>
+        <v>11.57</v>
       </c>
       <c r="E6" s="31" t="n">
-        <v>11.48</v>
+        <v>11.54</v>
       </c>
       <c r="F6" s="32" t="n">
-        <v>11.45</v>
+        <v>11.5</v>
       </c>
       <c r="G6" s="32" t="n">
-        <v>11.4</v>
+        <v>11.46</v>
       </c>
       <c r="H6" s="32" t="n">
-        <v>11.36</v>
+        <v>11.42</v>
       </c>
       <c r="I6" s="32" t="n">
-        <v>11.32</v>
+        <v>11.38</v>
       </c>
       <c r="J6" s="26" t="n">
         <v>44033</v>
@@ -1557,22 +1557,22 @@
         </is>
       </c>
       <c r="D7" s="31" t="n">
-        <v>11.34</v>
+        <v>11.5</v>
       </c>
       <c r="E7" s="31" t="n">
-        <v>11.44</v>
+        <v>11.41</v>
       </c>
       <c r="F7" s="32" t="n">
-        <v>11.29</v>
+        <v>11.36</v>
       </c>
       <c r="G7" s="32" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="H7" s="32" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="I7" s="32" t="n">
         <v>11.3</v>
-      </c>
-      <c r="H7" s="32" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="I7" s="32" t="n">
-        <v>11.18</v>
       </c>
       <c r="J7" s="26" t="n">
         <v>44033</v>
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="D8" s="33" t="n">
-        <v>11.86</v>
+        <v>11.94</v>
       </c>
       <c r="E8" s="33" t="n">
-        <v>11.78</v>
+        <v>11.88</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>11.73</v>
+        <v>11.81</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>11.67</v>
+        <v>11.75</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>11.54</v>
+        <v>11.64</v>
       </c>
       <c r="J8" s="26" t="n">
         <v>44029</v>
@@ -1641,22 +1641,22 @@
         </is>
       </c>
       <c r="D9" s="31" t="n">
-        <v>11.34</v>
+        <v>11.5</v>
       </c>
       <c r="E9" s="31" t="n">
-        <v>11.44</v>
+        <v>11.41</v>
       </c>
       <c r="F9" s="32" t="n">
-        <v>11.29</v>
+        <v>11.36</v>
       </c>
       <c r="G9" s="32" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="H9" s="32" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="I9" s="32" t="n">
         <v>11.3</v>
-      </c>
-      <c r="H9" s="32" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="I9" s="34" t="n">
-        <v>11.18</v>
       </c>
       <c r="J9" s="26" t="n">
         <v>44033</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="D10" s="35" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="E10" s="35" t="n">
         <v>11.12</v>
       </c>
-      <c r="E10" s="35" t="n">
-        <v>11.07</v>
-      </c>
       <c r="F10" s="36" t="n">
-        <v>11.02</v>
+        <v>11.12</v>
       </c>
       <c r="G10" s="36" t="n">
-        <v>10.97</v>
+        <v>11.03</v>
       </c>
       <c r="H10" s="36" t="n">
-        <v>10.87</v>
+        <v>10.99</v>
       </c>
       <c r="I10" s="36" t="n">
-        <v>10.84</v>
+        <v>10.93</v>
       </c>
       <c r="J10" s="26" t="n">
         <v>44033</v>
@@ -1725,22 +1725,22 @@
         </is>
       </c>
       <c r="D11" s="35" t="n">
-        <v>10.83</v>
+        <v>10.93</v>
       </c>
       <c r="E11" s="35" t="n">
-        <v>10.81</v>
+        <v>10.84</v>
       </c>
       <c r="F11" s="36" t="n">
-        <v>10.78</v>
+        <v>10.82</v>
       </c>
       <c r="G11" s="36" t="n">
-        <v>10.78</v>
+        <v>10.8</v>
       </c>
       <c r="H11" s="36" t="n">
-        <v>10.73</v>
+        <v>10.79</v>
       </c>
       <c r="I11" s="36" t="n">
-        <v>10.72</v>
+        <v>10.76</v>
       </c>
       <c r="J11" s="26" t="n">
         <v>44030</v>
@@ -1767,22 +1767,22 @@
         </is>
       </c>
       <c r="D12" s="31" t="n">
-        <v>13.75</v>
+        <v>13.8</v>
       </c>
       <c r="E12" s="31" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="F12" s="32" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="G12" s="32" t="n">
         <v>13.66</v>
       </c>
-      <c r="F12" s="32" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="G12" s="32" t="n">
-        <v>13.55</v>
-      </c>
       <c r="H12" s="32" t="n">
-        <v>13.49</v>
+        <v>13.59</v>
       </c>
       <c r="I12" s="32" t="n">
-        <v>13.47</v>
+        <v>13.52</v>
       </c>
       <c r="J12" s="26" t="n">
         <v>44025</v>
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D13" s="31" t="n">
-        <v>13.75</v>
+        <v>13.8</v>
       </c>
       <c r="E13" s="31" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="F13" s="32" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="G13" s="32" t="n">
         <v>13.66</v>
       </c>
-      <c r="F13" s="32" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="G13" s="32" t="n">
-        <v>13.55</v>
-      </c>
       <c r="H13" s="32" t="n">
-        <v>13.49</v>
+        <v>13.59</v>
       </c>
       <c r="I13" s="32" t="n">
-        <v>13.47</v>
+        <v>13.52</v>
       </c>
       <c r="J13" s="26" t="n">
         <v>44025</v>
@@ -1851,22 +1851,22 @@
         </is>
       </c>
       <c r="D14" s="37" t="n">
-        <v>13.75</v>
+        <v>13.8</v>
       </c>
       <c r="E14" s="37" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="F14" s="38" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="G14" s="38" t="n">
         <v>13.66</v>
       </c>
-      <c r="F14" s="38" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="G14" s="38" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="H14" s="32" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="I14" s="32" t="n">
-        <v>13.47</v>
+      <c r="H14" s="38" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="I14" s="38" t="n">
+        <v>13.52</v>
       </c>
       <c r="J14" s="26" t="n">
         <v>44025</v>
